--- a/data/trans_camb/P25_10-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_10-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-4,7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,2</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,12</t>
+          <t>-2,76; 3,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,89</t>
+          <t>-2,37; 3,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,36</t>
+          <t>-0,73; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 0,4</t>
+          <t>-0,38; 6,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -0,22</t>
+          <t>1,75; 7,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 0,68</t>
+          <t>-8,54; -0,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,01</t>
+          <t>-9,42; -0,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,66</t>
+          <t>0,69; 10,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,76</t>
+          <t>-9,62; 0,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 9,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 0,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 0,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 7,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 1,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 7,83</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,6%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>-17,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,87%</t>
+          <t>-15,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-13,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-14,27%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25,82%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 84,72</t>
+          <t>-37,43; 66,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 79,99</t>
+          <t>-31,27; 69,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 70,11</t>
+          <t>-12,21; 107,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 2,22</t>
+          <t>-3,51; 86,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,56; -1,44</t>
+          <t>20,73; 139,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 3,3</t>
+          <t>-30,51; -0,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 7,19</t>
+          <t>-34,01; -2,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 4,55</t>
+          <t>2,47; 45,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 5,52</t>
+          <t>-28,07; 2,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 52,11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,06; 4,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,38; 2,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 50,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; 10,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 62,03</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,54</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,44</t>
+          <t>-3,92; 1,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,82</t>
+          <t>-2,57; 3,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 5,33</t>
+          <t>-0,19; 6,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,79</t>
+          <t>-3,54; 6,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 0,92</t>
+          <t>-1,93; 8,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 0,79</t>
+          <t>-10,72; -0,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 0,33</t>
+          <t>-9,55; 1,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 1,38</t>
+          <t>-3,42; 9,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,35</t>
+          <t>-10,32; 4,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 13,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; -0,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 1,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 6,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 3,5</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 9,07</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,24%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,16%</t>
+          <t>-19,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>-16,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,19%</t>
+          <t>-11,36%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,42%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-12,23%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-7,76%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31,61%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 50,99</t>
+          <t>-45,3; 40,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 77,41</t>
+          <t>-31,32; 68,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 101,6</t>
+          <t>-3,8; 127,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 3,41</t>
+          <t>-33,09; 78,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 4,55</t>
+          <t>-19,84; 155,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 3,51</t>
+          <t>-36,04; 0,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 2,37</t>
+          <t>-31,66; 8,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 9,54</t>
+          <t>-11,92; 38,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 9,83</t>
+          <t>-33,6; 16,71</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 91,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-33,07; 0,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-28,0; 8,97</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 43,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-29,01; 19,97</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 81,49</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,87</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-4,52</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 9,2</t>
+          <t>-2,43; 9,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 5,0</t>
+          <t>-6,2; 5,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-5,38; 7,32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,99; 3,66</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-14,24; 4,94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 7,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 13,28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,87; 4,14</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; 3,66</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 5,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 4,98</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 9,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>21,04%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-22,88%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-18,28%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,29%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-8,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-11,25%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,54%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 354,2</t>
+          <t>-37,91; 423,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,42; 230,6</t>
+          <t>-78,04; 204,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-72,97; 344,76</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-50,07; 19,45</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 33,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-46,17; 27,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-38,25; 43,13</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,0; 66,37</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-40,84; 34,95</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-43,75; 29,13</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-35,5; 47,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-38,17; 41,27</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-24,81; 76,59</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,33</t>
+          <t>-1,65; 2,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,49</t>
+          <t>-1,54; 2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,09</t>
+          <t>0,45; 4,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -1,04</t>
+          <t>-0,12; 5,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; -1,04</t>
+          <t>1,36; 6,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,58; -1,47</t>
+          <t>-7,64; -1,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,08</t>
+          <t>-7,58; -1,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -0,09</t>
+          <t>0,53; 7,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,26</t>
+          <t>-7,06; 0,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 9,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; -0,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; -0,1</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 5,68</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,03</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 7,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,07%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,31%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-16,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-11,59%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-12,61%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,26%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 43,97</t>
+          <t>-23,75; 42,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 47,73</t>
+          <t>-21,65; 44,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 57,85</t>
+          <t>5,37; 90,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -4,28</t>
+          <t>-1,18; 67,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,39; -4,47</t>
+          <t>15,75; 116,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,52; -6,35</t>
+          <t>-28,13; -5,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 0,56</t>
+          <t>-27,95; -5,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,73; -0,63</t>
+          <t>2,04; 32,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -1,55</t>
+          <t>-22,52; 1,96</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 51,95</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; -2,53</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-23,01; -0,1</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 36,68</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-15,1; 11,32</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 59,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
